--- a/biology/Médecine/Jean_Guignard/Jean_Guignard.xlsx
+++ b/biology/Médecine/Jean_Guignard/Jean_Guignard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Guignard (1829-1901) est un médecin, chirurgien, député et maire d'Angers.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Guignard est né à Couziers dans le département d'Indre-et-Loire en 1829.
 Il poursuit des études de médecine à l'école de médecine d'Angers. Il deviendra à son tour professeur de cette même école. Il s'intéresse à l'anatomie, se spécialise dans le domaine des accouchements et se tourne vers la chirurgie. Il deviendra chirurgien en chef de l'hôpital d'Angers, à la tête duquel il demeure dix-huit années. 
@@ -548,7 +562,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Jean Guignard », dans le Dictionnaire des parlementaires français (1889-1940), sous la direction de Jean Jolly, PUF, 1960 [détail de l’édition]</t>
         </is>
